--- a/data/trans_dic/P69$dolorCabeza-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P69$dolorCabeza-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.3001126769458947</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.4082796025683673</v>
+        <v>0.4082796025683674</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.352191275786134</v>
@@ -697,7 +697,7 @@
         <v>0.3574420995634914</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4185248658234585</v>
+        <v>0.4185248658234586</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.236011332856535</v>
+        <v>0.2333456316420217</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2175598852535365</v>
+        <v>0.226666419296585</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2678738804354655</v>
+        <v>0.2616841813719845</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.295224162379373</v>
+        <v>0.2914882221786132</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2362295542460486</v>
+        <v>0.2431627449943161</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3039076882029048</v>
+        <v>0.306518811348626</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1773532798088124</v>
+        <v>0.1705208657879638</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2971458785993503</v>
+        <v>0.3003049173822435</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2611707220442798</v>
+        <v>0.2655729029807345</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2892650220838143</v>
+        <v>0.2968166957906588</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.251209647173728</v>
+        <v>0.2588486772814125</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3291597423116447</v>
+        <v>0.3346397179584929</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4658265591919459</v>
+        <v>0.46492894756661</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4788275001957555</v>
+        <v>0.4857137463113967</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5722125473286743</v>
+        <v>0.572376960846418</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5877619056034553</v>
+        <v>0.5863057868403559</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5085780802088695</v>
+        <v>0.5111874471297604</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6010361316725443</v>
+        <v>0.608552232763985</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4661272126138368</v>
+        <v>0.4559664618960714</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5291393622776673</v>
+        <v>0.525145544809369</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4368686309806759</v>
+        <v>0.4573592799686595</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4901520524606409</v>
+        <v>0.4967680378385927</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4593584021905809</v>
+        <v>0.4732179568602664</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5116278120700869</v>
+        <v>0.5146695459256705</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.3466338947967472</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2471725702794505</v>
+        <v>0.2471725702794506</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.6895027893069182</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1372291514458086</v>
+        <v>0.1446228626440469</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1665695139965774</v>
+        <v>0.1643899753612158</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.172527938966655</v>
+        <v>0.1802630937518088</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1203343851706016</v>
+        <v>0.1329234280109873</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5165683354169833</v>
+        <v>0.5211100713348723</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4038291021135588</v>
+        <v>0.4238930996678039</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2267281100756017</v>
+        <v>0.226615402091968</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2488065019032032</v>
+        <v>0.2503435957232701</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3584609403235431</v>
+        <v>0.3660278443805911</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3054392960247114</v>
+        <v>0.307300420691642</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2534007294805535</v>
+        <v>0.2608293317857787</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2212586402058435</v>
+        <v>0.2150617676740756</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4363035155819502</v>
+        <v>0.4355801686623025</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.487690704468064</v>
+        <v>0.476831943615908</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5415156772086207</v>
+        <v>0.5563305159706201</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3856890751250898</v>
+        <v>0.391503750084487</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8196472596365161</v>
+        <v>0.8085284694074998</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8183113304125478</v>
+        <v>0.8083600810530502</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5738855260912641</v>
+        <v>0.5792814581056334</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5069563953044999</v>
+        <v>0.5077452529334419</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.580446335350553</v>
+        <v>0.5798036064958264</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.58068957041796</v>
+        <v>0.5761228548769931</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5071715150968381</v>
+        <v>0.5135778762614571</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4100243266664455</v>
+        <v>0.4076699756407074</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.5832633161174031</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3073211451135475</v>
+        <v>0.3073211451135477</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.4170907915040045</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3165975017617332</v>
+        <v>0.311851223382671</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1606403600848395</v>
+        <v>0.1562851340615153</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1298181908481363</v>
+        <v>0.1303971365187294</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1367079786475996</v>
+        <v>0.137296603853574</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1972143501642551</v>
+        <v>0.1991480051297484</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2102667157366635</v>
+        <v>0.2108395828892924</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2478315764031405</v>
+        <v>0.2256637647572687</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1649153416852004</v>
+        <v>0.1568158252822597</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3253387588727302</v>
+        <v>0.3194966081513675</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2035177694551101</v>
+        <v>0.2045342246663822</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.172150471146592</v>
+        <v>0.1749315512307957</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1677434091940491</v>
+        <v>0.1770557191247049</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5243778211686666</v>
+        <v>0.5172676690779361</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3482902764041534</v>
+        <v>0.3528005981576228</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3515590246548342</v>
+        <v>0.3390311388706292</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4020929240304548</v>
+        <v>0.422996175512158</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7194552661365052</v>
+        <v>0.6932584319888138</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5779673461335352</v>
+        <v>0.5821546134684636</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9006237085219146</v>
+        <v>0.8975366747450996</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5077451637424067</v>
+        <v>0.5109527154787817</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5144656106259444</v>
+        <v>0.5107717852339011</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3807326033632642</v>
+        <v>0.3780722752001114</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3883504031290655</v>
+        <v>0.3861903215884527</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4003110383118421</v>
+        <v>0.3830925650745255</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.3146161562581797</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2714047388461506</v>
+        <v>0.2714047388461505</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2038438261318928</v>
+        <v>0.2084055071113301</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1393074355880798</v>
+        <v>0.1419857178230489</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1651072673043323</v>
+        <v>0.1621942891752322</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1657709510498543</v>
+        <v>0.1583125184943181</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3458307680502511</v>
+        <v>0.3423302053188791</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.219958092281991</v>
+        <v>0.2238006530389684</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3407151172533088</v>
+        <v>0.342208299505263</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2406312178340805</v>
+        <v>0.2458124188612762</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2533013686933107</v>
+        <v>0.2541318462721384</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.201930977597085</v>
+        <v>0.1894057650962803</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2485417226940207</v>
+        <v>0.2566840357937911</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2185759801735647</v>
+        <v>0.2168993640607891</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3341115674990146</v>
+        <v>0.3352444618985203</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2937221495089893</v>
+        <v>0.3054247719255663</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3159804033892019</v>
+        <v>0.3030160560462554</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3461724651965083</v>
+        <v>0.3339364156223386</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6255431694160898</v>
+        <v>0.6071693821224879</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4563181669168198</v>
+        <v>0.4519311299423431</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5578152326657447</v>
+        <v>0.5664973305622586</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4035740218230624</v>
+        <v>0.405576624438208</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3754000283148375</v>
+        <v>0.3712899412374395</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3291373406825005</v>
+        <v>0.3217609994788275</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3799302620827911</v>
+        <v>0.3886919240912703</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3375244767024454</v>
+        <v>0.340938507699919</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1081138002955525</v>
+        <v>0.1051535493916327</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1509471342976066</v>
+        <v>0.1697461100219425</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1718117825007019</v>
+        <v>0.1758321065749186</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07552513427183358</v>
+        <v>0.08918845487040836</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1183873369458747</v>
+        <v>0.1081441376775519</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2414381494876206</v>
+        <v>0.2260058834961429</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2947761267469132</v>
+        <v>0.2897556374576914</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2293602450171898</v>
+        <v>0.2305453919093871</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1338751004385328</v>
+        <v>0.1413258152179222</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2424263186790443</v>
+        <v>0.2383667648495749</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2650076031207443</v>
+        <v>0.265133551191936</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1975985926514688</v>
+        <v>0.1897939131630736</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3166695423606266</v>
+        <v>0.3206416573798506</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4473906579589945</v>
+        <v>0.4641781446188921</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4002062615566849</v>
+        <v>0.398495462493357</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2660789906573435</v>
+        <v>0.2805548236831434</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3089020137235535</v>
+        <v>0.3175286404810577</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5641921850208635</v>
+        <v>0.5374651355943483</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5832700786695388</v>
+        <v>0.5628008590226583</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4016317548237757</v>
+        <v>0.3989497648086371</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2796236865443577</v>
+        <v>0.2809987248535118</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4583532990398421</v>
+        <v>0.4632345926562088</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4331450965625001</v>
+        <v>0.4444483826693744</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3296232962320134</v>
+        <v>0.3153625442822583</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.4141223261300172</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.3359594663698236</v>
+        <v>0.3359594663698237</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.3343511317790205</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.258390417246937</v>
+        <v>0.2584916572404595</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2149996241789227</v>
+        <v>0.2138618780434373</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2273823669044837</v>
+        <v>0.225529742196607</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2027387465668608</v>
+        <v>0.2041539082889035</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3497614453508551</v>
+        <v>0.3481299055301779</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3423844655941635</v>
+        <v>0.3411592332383934</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3497218498504102</v>
+        <v>0.349145205809814</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2942213551100952</v>
+        <v>0.2934098148833448</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2998622001105888</v>
+        <v>0.2982409999237129</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2815235292444955</v>
+        <v>0.2723327151114282</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2871105939474294</v>
+        <v>0.2846950736345913</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2579392474392836</v>
+        <v>0.2622598675517424</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3418639923984502</v>
+        <v>0.3434533710114525</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3163144554004514</v>
+        <v>0.3126409501419791</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3251467161930136</v>
+        <v>0.3249829150990406</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3125912677025443</v>
+        <v>0.3086932578046629</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4770271555561956</v>
+        <v>0.4774190371140655</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.484826962223694</v>
+        <v>0.4815307282467947</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.484033545160492</v>
+        <v>0.487562230691983</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3847632292526946</v>
+        <v>0.3828674613972898</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3714170716350577</v>
+        <v>0.371103540515008</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.362785042852672</v>
+        <v>0.3611093364895259</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3685971359134208</v>
+        <v>0.3687419514560318</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3333195468735198</v>
+        <v>0.3294707429712187</v>
       </c>
     </row>
     <row r="22">
@@ -1737,40 +1737,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>15360</v>
+        <v>15187</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>12065</v>
+        <v>12570</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>12566</v>
+        <v>12276</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>15105</v>
+        <v>14914</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>11020</v>
+        <v>11344</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>13332</v>
+        <v>13447</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8147</v>
+        <v>7833</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>18168</v>
+        <v>18361</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>29181</v>
+        <v>29673</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>28732</v>
+        <v>29482</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>23324</v>
+        <v>24033</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>36967</v>
+        <v>37582</v>
       </c>
     </row>
     <row r="7">
@@ -1781,40 +1781,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>30317</v>
+        <v>30259</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>26555</v>
+        <v>26937</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26843</v>
+        <v>26851</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>30072</v>
+        <v>29998</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>23725</v>
+        <v>23847</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>26367</v>
+        <v>26697</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>21411</v>
+        <v>20944</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>32353</v>
+        <v>32108</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>48813</v>
+        <v>51102</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>48686</v>
+        <v>49343</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>42649</v>
+        <v>43936</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>57459</v>
+        <v>57800</v>
       </c>
     </row>
     <row r="8">
@@ -1917,40 +1917,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>5812</v>
+        <v>6126</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6053</v>
+        <v>5974</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5217</v>
+        <v>5450</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6264</v>
+        <v>6920</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>21498</v>
+        <v>21687</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>10748</v>
+        <v>11281</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>6664</v>
+        <v>6661</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>11309</v>
+        <v>11379</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>30100</v>
+        <v>30735</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>19229</v>
+        <v>19346</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>15111</v>
+        <v>15554</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>21576</v>
+        <v>20971</v>
       </c>
     </row>
     <row r="11">
@@ -1961,40 +1961,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>18480</v>
+        <v>18449</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>17724</v>
+        <v>17329</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>16373</v>
+        <v>16821</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>20079</v>
+        <v>20381</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>34110</v>
+        <v>33648</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>21779</v>
+        <v>21514</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>16869</v>
+        <v>17027</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>23043</v>
+        <v>23079</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>48740</v>
+        <v>48686</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>36558</v>
+        <v>36270</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>30243</v>
+        <v>30625</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>39983</v>
+        <v>39753</v>
       </c>
     </row>
     <row r="12">
@@ -2097,40 +2097,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>31669</v>
+        <v>31194</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12585</v>
+        <v>12244</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8562</v>
+        <v>8600</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8405</v>
+        <v>8442</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3212</v>
+        <v>3244</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7091</v>
+        <v>7110</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2372</v>
+        <v>2159</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3374</v>
+        <v>3208</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>37842</v>
+        <v>37163</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>22807</v>
+        <v>22921</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>13002</v>
+        <v>13212</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>13745</v>
+        <v>14508</v>
       </c>
     </row>
     <row r="15">
@@ -2141,40 +2141,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>52454</v>
+        <v>51742</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>27286</v>
+        <v>27639</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>23187</v>
+        <v>22361</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>24723</v>
+        <v>26008</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11718</v>
+        <v>11291</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>19490</v>
+        <v>19631</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8618</v>
+        <v>8589</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>10387</v>
+        <v>10453</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>59841</v>
+        <v>59411</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>42667</v>
+        <v>42369</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>29330</v>
+        <v>29167</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>32802</v>
+        <v>31391</v>
       </c>
     </row>
     <row r="16">
@@ -2277,40 +2277,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>40770</v>
+        <v>41683</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>16048</v>
+        <v>16357</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>22598</v>
+        <v>22199</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>25145</v>
+        <v>24014</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>17273</v>
+        <v>17098</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>14729</v>
+        <v>14986</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>28646</v>
+        <v>28772</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>27238</v>
+        <v>27825</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>63314</v>
+        <v>63521</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>36784</v>
+        <v>34503</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>54914</v>
+        <v>56713</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>57897</v>
+        <v>57453</v>
       </c>
     </row>
     <row r="19">
@@ -2321,40 +2321,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>66825</v>
+        <v>67051</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>33837</v>
+        <v>35185</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>43248</v>
+        <v>41474</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>52510</v>
+        <v>50653</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>31243</v>
+        <v>30326</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>30556</v>
+        <v>30262</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>46899</v>
+        <v>47629</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>45683</v>
+        <v>45910</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>93833</v>
+        <v>92805</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>59956</v>
+        <v>58613</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>83944</v>
+        <v>85880</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>89404</v>
+        <v>90309</v>
       </c>
     </row>
     <row r="20">
@@ -2457,40 +2457,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>6920</v>
+        <v>6731</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>6038</v>
+        <v>6791</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>11709</v>
+        <v>11983</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>4905</v>
+        <v>5793</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>7769</v>
+        <v>7097</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>10543</v>
+        <v>9869</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>13950</v>
+        <v>13712</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>22962</v>
+        <v>23081</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>17354</v>
+        <v>18320</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>20284</v>
+        <v>19945</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>30601</v>
+        <v>30616</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>32616</v>
+        <v>31327</v>
       </c>
     </row>
     <row r="23">
@@ -2501,40 +2501,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>20270</v>
+        <v>20524</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>17897</v>
+        <v>18569</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>27274</v>
+        <v>27157</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>17281</v>
+        <v>18221</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>20271</v>
+        <v>20837</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>24637</v>
+        <v>23470</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>27603</v>
+        <v>26634</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>40209</v>
+        <v>39940</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>36248</v>
+        <v>36426</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>38351</v>
+        <v>38760</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>50017</v>
+        <v>51322</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>54408</v>
+        <v>52054</v>
       </c>
     </row>
     <row r="24">
@@ -2637,40 +2637,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>121827</v>
+        <v>121875</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>69949</v>
+        <v>69579</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>79157</v>
+        <v>78512</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>77313</v>
+        <v>77852</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>76990</v>
+        <v>76631</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>73556</v>
+        <v>73293</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>75644</v>
+        <v>75519</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>100142</v>
+        <v>99866</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>207386</v>
+        <v>206265</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>152074</v>
+        <v>147109</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>162051</v>
+        <v>160687</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>186156</v>
+        <v>189274</v>
       </c>
     </row>
     <row r="27">
@@ -2681,40 +2681,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>161183</v>
+        <v>161933</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>102912</v>
+        <v>101717</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>113191</v>
+        <v>113134</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>119204</v>
+        <v>117718</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>105004</v>
+        <v>105090</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>104158</v>
+        <v>103450</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>104695</v>
+        <v>105459</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>130959</v>
+        <v>130314</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>256874</v>
+        <v>256657</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>195970</v>
+        <v>195065</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>208043</v>
+        <v>208125</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>240558</v>
+        <v>237780</v>
       </c>
     </row>
     <row r="28">
